--- a/Baltimore_Employment_Dataset.xlsx
+++ b/Baltimore_Employment_Dataset.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoffman/Desktop/Business Analytics Mini-Project 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE200490-3DD5-3E47-B62C-A1E77397DCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6951E523-9F8B-4348-9F8C-A29F887DE1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="740" windowWidth="25600" windowHeight="13940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="25600" windowHeight="13940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baltimore_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Prepared_Data" sheetId="6" r:id="rId2"/>
     <sheet name="Solved_Data" sheetId="8" r:id="rId3"/>
-    <sheet name="Data_Visual" sheetId="15" r:id="rId4"/>
-    <sheet name="Employment_data" sheetId="3" r:id="rId5"/>
-    <sheet name="Density_data" sheetId="4" r:id="rId6"/>
-    <sheet name="Commute_data" sheetId="5" r:id="rId7"/>
+    <sheet name="Density_Visual" sheetId="15" r:id="rId4"/>
+    <sheet name="Employment_Visual" sheetId="17" r:id="rId5"/>
+    <sheet name="Commute_Visual" sheetId="18" r:id="rId6"/>
+    <sheet name="Employment_data" sheetId="3" r:id="rId7"/>
+    <sheet name="Density_data" sheetId="4" r:id="rId8"/>
+    <sheet name="Commute_data" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Data_Visual!$A$1:$D$196</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Data_Visual!$B$2:$B$62</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data_Visual!$C$2:$C$62</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data_Visual!$B$2:$B$62</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Data_Visual!$C$2:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Commute_Visual!$A$1:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Density_Visual!$A$1:$D$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Employment_Visual!$A$1:$C$196</definedName>
     <definedName name="cluster_baltimore">Prepared_Data!$A$13:$K$208</definedName>
     <definedName name="cluster2">#REF!</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Prepared_Data!$B$3:$B$6</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="353">
   <si>
     <t>tract</t>
   </si>
@@ -1138,6 +1138,18 @@
   <si>
     <t>Total Neighborhoods</t>
   </si>
+  <si>
+    <t xml:space="preserve">*I used VLOOKUP to organize the data for household income, employment, job density, and fraction of short commutes by population tract in Baltimore </t>
+  </si>
+  <si>
+    <t>* I then calculated the mean and stdev, z scores, and dist^2 for the population tracts' variables. I selected the initial anchor points in chronological order in order to perform the dist^2 calculations. Based on the distances squared, I determined which pre-selected anchor points were closest to the population tracts. Then I calculated the sum of the mininum distances squared to use as a reference point for the solver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Finally, I used the solver to find the final anchor points that would serve as the basis of my 4 cluster analysis. I then categorized each neighborhood by their cluster and calculated what percentage of Baltimorean neighborhoods these population tracts represented. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Finally, I used the data select tool to make a 4 quadrant scatter plot comparing income and job density, which seemed like very interesting variables for reasons outlined in the readme file. </t>
+  </si>
 </sst>
 </file>
 
@@ -1183,12 +1195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1219,7 +1237,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1228,6 +1246,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1362,7 +1386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data_Visual!$B$2:$B$62</c:f>
+              <c:f>Density_Visual!$B$2:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1554,7 +1578,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data_Visual!$C$2:$C$62</c:f>
+              <c:f>Density_Visual!$C$2:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -1781,7 +1805,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data_Visual!$B$63:$B$155</c:f>
+              <c:f>Density_Visual!$B$63:$B$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -2069,7 +2093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data_Visual!$C$63:$C$155</c:f>
+              <c:f>Density_Visual!$C$63:$C$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="93"/>
@@ -2392,7 +2416,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data_Visual!$B$156:$B$193</c:f>
+              <c:f>Density_Visual!$B$156:$B$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2515,7 +2539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data_Visual!$C$156:$C$193</c:f>
+              <c:f>Density_Visual!$C$156:$C$193</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2673,7 +2697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data_Visual!$B$194:$B$196</c:f>
+              <c:f>Density_Visual!$B$194:$B$196</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2691,7 +2715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data_Visual!$C$194:$C$196</c:f>
+              <c:f>Density_Visual!$C$194:$C$196</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3047,6 +3071,3592 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population Tracts by Household Income vs. Employment Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.7090722779447709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27707990974688634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25729969763933741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21568660990364485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12443638612448049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3569721487186013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0397423318994202E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9666801576869944E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5714898192428511E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10751459170272057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20958795040865699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.29188109700704451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.32005856897157176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.3379727233331255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35458063727248262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.38145186881481324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.38686343627819925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.42213192767750818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.4493763707690378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.5113294879360778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.54174622919579929</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.55387560454476803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56507195102073904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.57906738411570291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.6147090870642109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.6249724046671844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.64269995325413865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.71939492661454063</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.73805550407449239</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.74738579280446826</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.74775900435366738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.76772582223581576</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.77332399547380137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.779668591810185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.78731942856876524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.790491726736957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.79459705377814638</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.79795595772093775</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.82986554517745537</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.85076539193260137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.85431090164999224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.91010602825524811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.91868989388682598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.92391485557561248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.93697725979757873</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.9451879138799576</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.95265214486393823</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.96011637584791898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0043419444280048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0073276368215971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0175909544245705</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.0420363108971076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.0651754269474478</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.0666682731442438</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.0780512253948145</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.1103340244005311</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.1312338711556771</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.2514079899977668</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.2973130105492483</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3570268584210941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4165541005183404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>-1.654737593744392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.46654586308483847</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.24129624589819315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9617894009671226E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3544047708288649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29948573033807629</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.91516801731490727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4989399418569607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4257338162713029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29554867506331028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.25818996718719173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.69742672070114931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.62797475540193304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1660301451809911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.82319109029702686</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.2361487218058747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7185583186139406</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.6660000746037229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.22064836432275087</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.785649487432586</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5249134439336733E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.58274193697628451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.76875576614358743</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.1779592373659915</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43088134036361941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31056531620908706</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.84196189172924729</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.64486847669093161</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.0259157457650061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.6716313150333906</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.4168321318925408</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.50784162623572304</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.9287912946548091</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2342716416626527</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.8340276400251829</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.74623080442492329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.4074467311764294</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.40084805807206586</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21295714876154118</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.60920395396971261</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4701099738552993E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4053218163110723E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.68804131998504015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.64299139654770976</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.70868920156048243</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.8091418818259482</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.6509834334579461</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.95646378046579184</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.72370584270625704</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.95834086060901369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.31637945162707493</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.64111431640448802</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.15289058417843618</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.2474112026652078</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.6078105901638398</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.3224944083940895</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.20000048274730858</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.75186204485458874</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.1071139082609043</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.0052678641895638</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.52848950781116533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACE0-E74D-BE4E-2525B952C39B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$A$63:$A$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.0186512580053715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95072675605114687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78614046285437189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69003848893562003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66466010359008554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65644944950770678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60923818853402867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57826162995050867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55512251390016842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49727472377431775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49708811799971825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47189633842878326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44241262604205944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39520136506838133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30413774706381647</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30003242002262709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27838615016908297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27073531341050272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25543363989334222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24554353383956776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19926530173888726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16623607963477255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1636235987903793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14645586752722362</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14067108851463855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12686226119427421</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11939803021029349</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11006774148031759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.345982754096048E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.741173092540192E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3119798109612999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0693923039819265E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8037912484903583E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2479596759830889E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.0556300739345116E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.1456147494491148E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.3882022564284882E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.910698425307139E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.0413224675268022E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.25426000242367E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.12412250564207769</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17954442069813459</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.18420956506312253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.19671215196129024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2086549215356594</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.21854502758943387</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.22041108533542905</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.22899495096700689</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.27079464447729895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.27620621194068501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.27620621194068501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.28534989489606138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.29150788545784545</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.30550331855280932</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.31035506869239682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.3144603957335862</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.32080499206996982</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.33573345403793126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.35066191600589275</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.36503056065005562</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.37454745515463106</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.38854288824959493</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.40962934077934043</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.41130879275073612</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.42213192767750818</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.48259219864775205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.48875018920953617</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.50741076666948792</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.53950695990060504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.5525693641225714</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.56115322975414916</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.6300107605813714</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.63094378945436902</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.63336966452416277</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.65016418423811939</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.65744180944750052</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.67386311761225814</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.68879157958021964</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.69606920478960077</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.71547620534795076</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.72536631140172514</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.73544302323009914</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.78881227476556137</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.79422384222894737</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.79832916927013675</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.8216548910950765</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.86662688277356037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.95377177951153536</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.9554512314829311</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.96758060683189973</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0338256568147286</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.2051297578970863</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.2538338650675607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$B$63:$B$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.2059325445260027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.989158680586943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9074768017536976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60151273840850494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1571284608022288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.588856893743299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75167914986626849</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4968799667254187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4386904822855355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98068292733935747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.74604790943660093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2847699105413284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.250982467963331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2322116665311107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11159482102755161</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36500064036252655</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34998399921674977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2735074296819953</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.56960237597372965</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90559972161047575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3936405588482053</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.1063269857324598E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2322116665311107</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76294163072559951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13975102317588123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83990191659770319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2547366282497747</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99006832805546674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2209491856717776</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19606342747254257</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84928731731381446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21671130904798483</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2359658268175544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7774096158000851E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27114663320142435</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25425291191242572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.30493407577942155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1890388232370042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1590055409454507</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.93563300390202719</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.0240386656217841</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.77795827187137634</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62779186041361279</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.39878808294052376</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.3554131503381264E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0265775585113503E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.25049875162598206</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.85491855774347991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.6108981391246141</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.12867143730487049</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.34810691907352792</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.88138057473691012</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50765873124740279</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.40254224322696747</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.62403770012716908</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24486751119631656</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.17184428059897688</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58461901711950637</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.25049875162598206</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.46448588795329426</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.10033234016821851</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.12304019687520498</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.54162906881372019</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.80254320872158458</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.528241673089028E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.10971774088432977</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4709257745078264E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.63342310084327824</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5863733723227556E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.33702733320251721</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.53581493339573238</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.41398761907462078</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-6.4850712435321811E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.20938588346341777</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-8.1744433724318333E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.16058179973964587</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0913657160555787E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.53412074824083078</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.5498594010764095E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.8455260024996674E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.48888792981518231</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.12285730188688262</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.7218287625630353</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.2112629636066396</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.42712718007717576</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.13242559759131417</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.23378792532530579</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.77063284628680928</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.65425387740704288</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.785649487432586</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.28446908919229952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.98274290247089957</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0071449443327856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACE0-E74D-BE4E-2525B952C39B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$A$156:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4.965923208108979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1739683007086237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8651357437464213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6195625443734554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0116009307282252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7469939423461085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2780536307775194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8990573025658981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7846679627363935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6072058710922517</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5835069377181128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5213672147764734</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5081182047799075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4795675212661812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4633328188760233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1813714934561512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1440503385362477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1328539920602765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1319209631872791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1233370975557011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.107102395165543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0449626722239036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0445894606747046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0363788065923256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0009237094184171</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.946808034784557</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94046343844817337</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7458336155408759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7452737982170774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74322113469648265</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70589997977657903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64599952613013367</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.59486954388986579</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58423301473769318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50809785870108981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26849604411530847</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23733287975718897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.9244606553545542E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$B$156:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>1.2472283076768873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5311511256407648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3504677155540987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.228457506244667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4204033971906642</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7108671030527309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9069859308887486E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82488527545192636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53581493339573238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.70118088098759301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3598531162702101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6226443363212963</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6057506150322978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17916970618354394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.39503392265408011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94314132447491661</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.64674555683415347</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3373281545515459</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.37644601621017992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4538900184196326</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.0481952864987318E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.50202749081773512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7878273889248344</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.4839233007111861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.9684458592776231E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.32201069205674043</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.130849338797121</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.56209405540084223</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7108671030527309</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.29948573033807629</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.57353943124849349</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.1129834440429602E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52455245253640137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.54350614895694205</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.10051523515653878</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.60526689869494865</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31807363678197648</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2059325445260027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACE0-E74D-BE4E-2525B952C39B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$A$194:$A$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.48645158884754569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.56693800876673428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.9606761931717176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Employment_Visual!$B$194:$B$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71601462714504949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.60169563339682519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.90765969674201785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ACE0-E74D-BE4E-2525B952C39B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1273630175"/>
+        <c:axId val="1293851055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1273630175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Household Income</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1293851055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1293851055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Employment Rate </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273630175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population Tracts by Household Income vs. Short</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Commute Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cluster 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$A$2:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.7090722779447709</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27707990974688634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25729969763933741</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21568660990364485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12443638612448049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3569721487186013E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0397423318994202E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.9666801576869944E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5714898192428511E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10751459170272057</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20958795040865699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.29188109700704451</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.32005856897157176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.3379727233331255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35458063727248262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.38145186881481324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.38686343627819925</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.42213192767750818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.4493763707690378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.5113294879360778</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.54174622919579929</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.55387560454476803</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.56507195102073904</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.57906738411570291</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.6147090870642109</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.6249724046671844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.64269995325413865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.71939492661454063</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.73805550407449239</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.74738579280446826</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.74775900435366738</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.76772582223581576</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.77332399547380137</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.779668591810185</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.78731942856876524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.790491726736957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.79459705377814638</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.79795595772093775</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.82986554517745537</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.85076539193260137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.85431090164999224</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.91010602825524811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.91868989388682598</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.92391485557561248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.93697725979757873</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.9451879138799576</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.95265214486393823</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.96011637584791898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0043419444280048</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0073276368215971</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0175909544245705</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.0420363108971076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.0651754269474478</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.0666682731442438</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.0780512253948145</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.1103340244005311</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.1312338711556771</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.2514079899977668</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.2973130105492483</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3570268584210941</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4165541005183404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$B$2:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>0.22376794091434621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6290481636251477</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79495975479738168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0951204197425692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5029336438453129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5345961612445944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39981153765435051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60245164900975112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68224119285594009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1179174322700518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20097092838686331</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0254628814641502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.18024578110048414</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4571442177289589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91401082021867985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0748564086070291</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2888950262261714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5454591176910446</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19717142629894963</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.12198674908580653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66704318450428501</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.6379136684969462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.13718475743746167</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.14478376161328907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.343354556152935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85448528750803077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97860235571321375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.88868080629925472</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3154915408415675</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52646160725147573</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14397839706815715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.66957618589622758</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1077854267022815</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.94314033622601867</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.0217377930426883</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.23010044439420246</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26556246388139754</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.22963930824336326</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5548601723801343</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.9518867141392885E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5181316521969686</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37701452512686801</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.9532198279904939E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.22963930824336326</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.32462686044120709</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2382349983873211</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.2787630206584011</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.26556246388139754</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.77849524574975537</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.50619759611593584</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.15284390193995567</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.96720384944947224</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6080532016109275</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3319560498891936</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.67038155044135961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.84769164787733531</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5219311542848819</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2319024949074648</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.10091737340513433</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.91988218754769691</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.71724207619229619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F1E6-BD47-A90C-452F9830F215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cluster 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$A$63:$A$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>1.0186512580053715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95072675605114687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78614046285437189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69003848893562003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66466010359008554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65644944950770678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60923818853402867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57826162995050867</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55512251390016842</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49727472377431775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49708811799971825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47189633842878326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.44241262604205944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39520136506838133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.30413774706381647</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30003242002262709</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27838615016908297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27073531341050272</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25543363989334222</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24554353383956776</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19926530173888726</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16623607963477255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1636235987903793</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14645586752722362</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14067108851463855</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.12686226119427421</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11939803021029349</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11006774148031759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.345982754096048E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.741173092540192E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.3119798109612999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0693923039819265E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8037912484903583E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.2479596759830889E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.0556300739345116E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-4.1456147494491148E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-4.3882022564284882E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-4.910698425307139E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.0413224675268022E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-6.25426000242367E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.12412250564207769</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.17954442069813459</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.18420956506312253</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.19671215196129024</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.2086549215356594</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.21854502758943387</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.22041108533542905</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.22899495096700689</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.27079464447729895</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.27620621194068501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.27620621194068501</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.28534989489606138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.29150788545784545</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.30550331855280932</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.31035506869239682</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.3144603957335862</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.32080499206996982</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.33573345403793126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.35066191600589275</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.36503056065005562</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.37454745515463106</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.38854288824959493</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.40962934077934043</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.41130879275073612</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.42213192767750818</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.48259219864775205</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.48875018920953617</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.50741076666948792</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.53950695990060504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.5525693641225714</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.56115322975414916</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.6300107605813714</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.63094378945436902</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.63336966452416277</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.65016418423811939</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.65744180944750052</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.67386311761225814</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.68879157958021964</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.69606920478960077</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.71547620534795076</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.72536631140172514</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.73544302323009914</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.78881227476556137</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.79422384222894737</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.79832916927013675</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.8216548910950765</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.86662688277356037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.95377177951153536</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.9554512314829311</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.96758060683189973</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.0338256568147286</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.2051297578970863</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.2538338650675607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$B$63:$B$155</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="93"/>
+                <c:pt idx="0">
+                  <c:v>-0.85529065205316279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.50953596205301033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.37148738619214361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.70837657132049736</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1541848163023789</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.712711623225702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.44114492447056269</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14144539567621459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7899681656799487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28076047223305234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.16631427344480049</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.76916860472711757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2111773476210854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.21570780058767924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.80083112212639895</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.7185085768882673</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38334702860672426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.17011377553271417</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.4436779258625051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.40188340289545355</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.66404904696150335</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.71217607340841105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9356836645087086E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.88695316945244418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.19037778666825414</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46187007175694184</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.1351873058628099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.7988355309881815E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.56272899128380305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.81982863256596772</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21996843882643216</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.75650359776740494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.079461275240075</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.2200428524928841</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.1795148302218039</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.0798698975876053E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3808884408812334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.33729186740091965</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2529718705881367</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.98827322513014448</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.69064556157689971</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.24483731659501806</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-8.0192226118755164E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.59439150868308444</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.65265054069776207</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.60579001494682572</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.1985123406613727</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.2960328942511596</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.1440528107346088</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.0016864483935211E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.43020755435766045</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.85275765066122045</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.60832301633876817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.373289436705406</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.36388838201631624</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.16378127205285789</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.1503853142144651</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.0534687840336102E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.18277878249242674</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.82996063813373766</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.67164805113733095</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.64125203443402079</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.81349612908611146</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.0781947745441036</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.92621469102755316</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.20177629293199556</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.98574022373820214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5100715118703016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.7342421350572135</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.40694940567933868</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.49940395648524027</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.82616113604582397</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.21064179780379444</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.4682769889032501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.159250819086264</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.0553977620166211</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.29549734443386827</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.81349612908611146</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.87808766458064536</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0250017453133109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.39935040150351131</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.59185850729114187</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.2314413587566255</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.58046000102740059</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.50067045718121161</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.90468417919604172</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.3474238729686896</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.77423460751100248</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.0364002515770523</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.2023118427492867</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.45254343073430392</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.4796754951669913</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.0541312613206499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F1E6-BD47-A90C-452F9830F215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cluster 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$A$156:$A$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>4.965923208108979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1739683007086237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8651357437464213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6195625443734554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0116009307282252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7469939423461085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2780536307775194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8990573025658981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7846679627363935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6072058710922517</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5835069377181128</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5213672147764734</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5081182047799075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4795675212661812</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4633328188760233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1813714934561512</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1440503385362477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1328539920602765</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1319209631872791</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1233370975557011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.107102395165543</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0449626722239036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0445894606747046</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0363788065923256</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0009237094184171</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.946808034784557</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94046343844817337</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7458336155408759</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7452737982170774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74322113469648265</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.70589997977657903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64599952613013367</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.59486954388986579</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58423301473769318</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50809785870108981</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26849604411530847</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.23733287975718897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.9244606553545542E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$B$156:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>0.71896971303910673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33901950424773031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2281029928195508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3230905450173951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.3859722638898881E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.12072024838983507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.226232468714643E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81522376593292201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.50573645996509653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9570718438817023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44540556270931558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.98700672443417337</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.0034712334817997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55559112325881455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.15111626509314535</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50999709820384953</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.41754254739794788</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.36388838201631624</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.54373148084423428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17944041655535226</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.21697430128365069</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34535200772758662</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5472611682043069</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7878963004388455</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74809922904644544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60371814970572257</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.39854503695837906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8727518470689195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74683272835047398</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.22710630685142069</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2065724809880398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.672185461391035E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1812424670686146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49099958776428065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21870193813046104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.4877356354936582</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72150271443104885</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1356484420136492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F1E6-BD47-A90C-452F9830F215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Cluster 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$A$194:$A$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.48645158884754569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.56693800876673428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.9606761931717176</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Commute_Visual!$B$194:$B$196</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.9740719027466198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.43668480553203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3768191240654786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F1E6-BD47-A90C-452F9830F215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1274514223"/>
+        <c:axId val="1298162991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1274514223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Household</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Income</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298162991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1298162991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fraction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Short Commute Times</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274514223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3087,7 +6697,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3644,6 +8366,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE90EDD2-4E90-F543-986A-A9064A404FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEBCA9C-C0B9-1240-849B-EBDE690A7647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3687,7 +8491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3739,7 +8543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3941,10 +8745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3952,9 +8756,10 @@
     <col min="2" max="4" width="16.83203125" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -3974,7 +8779,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>24510271400</v>
       </c>
@@ -3997,7 +8802,7 @@
         <v>0.21640000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3">
         <v>24510271501</v>
       </c>
@@ -4019,8 +8824,11 @@
         <f>VLOOKUP(A3,Commute_data!A:C,3,)</f>
         <v>0.18640000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>24510020300</v>
       </c>
@@ -4043,7 +8851,7 @@
         <v>0.25659999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>24510240200</v>
       </c>
@@ -4066,7 +8874,7 @@
         <v>0.2641</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>24510271200</v>
       </c>
@@ -4089,7 +8897,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>24510270703</v>
       </c>
@@ -4112,7 +8920,7 @@
         <v>0.15010000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>24510272004</v>
       </c>
@@ -4135,7 +8943,7 @@
         <v>0.16059999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>24510010400</v>
       </c>
@@ -4158,7 +8966,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>24510270501</v>
       </c>
@@ -4181,7 +8989,7 @@
         <v>0.1197</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>24510272005</v>
       </c>
@@ -4204,7 +9012,7 @@
         <v>0.23519999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>24510270302</v>
       </c>
@@ -4227,7 +9035,7 @@
         <v>0.1948</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>24005401506</v>
       </c>
@@ -4250,7 +9058,7 @@
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>24510270502</v>
       </c>
@@ -4273,7 +9081,7 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>24510250103</v>
       </c>
@@ -4296,7 +9104,7 @@
         <v>0.20349999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>24510270804</v>
       </c>
@@ -8474,8 +13282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1048576"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8485,7 +13293,7 @@
     <col min="4" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="9" max="9" width="52.83203125" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
@@ -8508,7 +13316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="136">
       <c r="A2" s="1" t="s">
         <v>316</v>
       </c>
@@ -8529,6 +13337,9 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>326</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -21645,8 +26456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:Q208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -21658,7 +26469,7 @@
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="40" customWidth="1"/>
     <col min="17" max="17" width="15.1640625" customWidth="1"/>
     <col min="19" max="19" width="15.1640625" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" customWidth="1"/>
@@ -21717,7 +26528,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="119">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21749,6 +26560,9 @@
       </c>
       <c r="I3" t="s">
         <v>332</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -34920,10 +39734,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76596B4E-B6C2-9448-82B2-80C15A06DD2C}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:P196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34931,9 +39745,12 @@
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -34947,7 +39764,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -34961,7 +39778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:16" ht="119">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -34974,8 +39791,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="P3" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -34989,7 +39809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -35003,7 +39823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -35017,7 +39837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -35031,7 +39851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -35045,7 +39865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -35059,7 +39879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -35073,7 +39893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -35087,7 +39907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -35101,7 +39921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -35115,7 +39935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -35129,7 +39949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -35143,7 +39963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -37689,6 +42509,4360 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF35130-E8D5-2B43-804E-0BC3F6E53962}">
+  <dimension ref="A1:C196"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.7090722779447709</v>
+      </c>
+      <c r="B2">
+        <v>-1.654737593744392</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.27707990974688634</v>
+      </c>
+      <c r="B3">
+        <v>-0.46654586308483847</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.25729969763933741</v>
+      </c>
+      <c r="B4">
+        <v>-0.24129624589819315</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.21568660990364485</v>
+      </c>
+      <c r="B5">
+        <v>1.9617894009671226E-2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.12443638612448049</v>
+      </c>
+      <c r="B6">
+        <v>-1.3544047708288649</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8.3569721487186013E-2</v>
+      </c>
+      <c r="B7">
+        <v>-0.29948573033807629</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8.0397423318994202E-2</v>
+      </c>
+      <c r="B8">
+        <v>-0.91516801731490727</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>-4.9666801576869944E-2</v>
+      </c>
+      <c r="B9">
+        <v>-1.4989399418569607</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>-6.5714898192428511E-2</v>
+      </c>
+      <c r="B10">
+        <v>-1.4257338162713029</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>-0.10751459170272057</v>
+      </c>
+      <c r="B11">
+        <v>0.29554867506331028</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>-0.20958795040865699</v>
+      </c>
+      <c r="B12">
+        <v>-0.25818996718719173</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>-0.29188109700704451</v>
+      </c>
+      <c r="B13">
+        <v>-0.69742672070114931</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>-0.32005856897157176</v>
+      </c>
+      <c r="B14">
+        <v>-0.62797475540193304</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>-0.3379727233331255</v>
+      </c>
+      <c r="B15">
+        <v>0.1660301451809911</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>-0.35458063727248262</v>
+      </c>
+      <c r="B16">
+        <v>-0.82319109029702686</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>-0.38145186881481324</v>
+      </c>
+      <c r="B17">
+        <v>-1.2361487218058747</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>-0.38686343627819925</v>
+      </c>
+      <c r="B18">
+        <v>-1.7185583186139406</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>-0.42213192767750818</v>
+      </c>
+      <c r="B19">
+        <v>-1.6660000746037229</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-0.4493763707690378</v>
+      </c>
+      <c r="B20">
+        <v>-0.22064836432275087</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>-0.5113294879360778</v>
+      </c>
+      <c r="B21">
+        <v>-0.785649487432586</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>-0.54174622919579929</v>
+      </c>
+      <c r="B22">
+        <v>2.5249134439336733E-2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>-0.55387560454476803</v>
+      </c>
+      <c r="B23">
+        <v>0.58274193697628451</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>-0.56507195102073904</v>
+      </c>
+      <c r="B24">
+        <v>-0.76875576614358743</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>-0.57906738411570291</v>
+      </c>
+      <c r="B25">
+        <v>-1.1779592373659915</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>-0.6147090870642109</v>
+      </c>
+      <c r="B26">
+        <v>-0.43088134036361941</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>-0.6249724046671844</v>
+      </c>
+      <c r="B27">
+        <v>0.31056531620908706</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>-0.64269995325413865</v>
+      </c>
+      <c r="B28">
+        <v>-0.84196189172924729</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>-0.71939492661454063</v>
+      </c>
+      <c r="B29">
+        <v>-0.64486847669093161</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>-0.73805550407449239</v>
+      </c>
+      <c r="B30">
+        <v>-1.0259157457650061</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>-0.74738579280446826</v>
+      </c>
+      <c r="B31">
+        <v>-1.6716313150333906</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>-0.74775900435366738</v>
+      </c>
+      <c r="B32">
+        <v>-2.4168321318925408</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>-0.76772582223581576</v>
+      </c>
+      <c r="B33">
+        <v>-0.50784162623572304</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>-0.77332399547380137</v>
+      </c>
+      <c r="B34">
+        <v>-1.9287912946548091</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>-0.779668591810185</v>
+      </c>
+      <c r="B35">
+        <v>-1.2342716416626527</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>-0.78731942856876524</v>
+      </c>
+      <c r="B36">
+        <v>-3.8340276400251829</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>-0.790491726736957</v>
+      </c>
+      <c r="B37">
+        <v>-0.74623080442492329</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>-0.79459705377814638</v>
+      </c>
+      <c r="B38">
+        <v>-2.4074467311764294</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>-0.79795595772093775</v>
+      </c>
+      <c r="B39">
+        <v>-0.40084805807206586</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>-0.82986554517745537</v>
+      </c>
+      <c r="B40">
+        <v>0.21295714876154118</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>-0.85076539193260137</v>
+      </c>
+      <c r="B41">
+        <v>-0.60920395396971261</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>-0.85431090164999224</v>
+      </c>
+      <c r="B42">
+        <v>9.4701099738552993E-2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>-0.91010602825524811</v>
+      </c>
+      <c r="B43">
+        <v>7.4053218163110723E-2</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>-0.91868989388682598</v>
+      </c>
+      <c r="B44">
+        <v>-0.68804131998504015</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>-0.92391485557561248</v>
+      </c>
+      <c r="B45">
+        <v>-0.64299139654770976</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>-0.93697725979757873</v>
+      </c>
+      <c r="B46">
+        <v>-0.70868920156048243</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>-0.9451879138799576</v>
+      </c>
+      <c r="B47">
+        <v>-2.8091418818259482</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>-0.95265214486393823</v>
+      </c>
+      <c r="B48">
+        <v>-1.6509834334579461</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>-0.96011637584791898</v>
+      </c>
+      <c r="B49">
+        <v>-0.95646378046579184</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>-1.0043419444280048</v>
+      </c>
+      <c r="B50">
+        <v>-0.72370584270625704</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>-1.0073276368215971</v>
+      </c>
+      <c r="B51">
+        <v>-0.95834086060901369</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>-1.0175909544245705</v>
+      </c>
+      <c r="B52">
+        <v>-0.31637945162707493</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>-1.0420363108971076</v>
+      </c>
+      <c r="B53">
+        <v>-0.64111431640448802</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>-1.0651754269474478</v>
+      </c>
+      <c r="B54">
+        <v>0.15289058417843618</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>-1.0666682731442438</v>
+      </c>
+      <c r="B55">
+        <v>-1.2474112026652078</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>-1.0780512253948145</v>
+      </c>
+      <c r="B56">
+        <v>-1.6078105901638398</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>-1.1103340244005311</v>
+      </c>
+      <c r="B57">
+        <v>-1.3224944083940895</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>-1.1312338711556771</v>
+      </c>
+      <c r="B58">
+        <v>-0.20000048274730858</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>-1.2514079899977668</v>
+      </c>
+      <c r="B59">
+        <v>-0.75186204485458874</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>-1.2973130105492483</v>
+      </c>
+      <c r="B60">
+        <v>-2.1071139082609043</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>-1.3570268584210941</v>
+      </c>
+      <c r="B61">
+        <v>-1.0052678641895638</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>-1.4165541005183404</v>
+      </c>
+      <c r="B62">
+        <v>-0.52848950781116533</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1.0186512580053715</v>
+      </c>
+      <c r="B63">
+        <v>1.2059325445260027</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>0.95072675605114687</v>
+      </c>
+      <c r="B64">
+        <v>2.989158680586943</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>0.78614046285437189</v>
+      </c>
+      <c r="B65">
+        <v>0.9074768017536976</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>0.69003848893562003</v>
+      </c>
+      <c r="B66">
+        <v>0.60151273840850494</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>0.66466010359008554</v>
+      </c>
+      <c r="B67">
+        <v>1.1571284608022288</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>0.65644944950770678</v>
+      </c>
+      <c r="B68">
+        <v>1.588856893743299</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>0.60923818853402867</v>
+      </c>
+      <c r="B69">
+        <v>0.75167914986626849</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>0.57826162995050867</v>
+      </c>
+      <c r="B70">
+        <v>1.4968799667254187</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>0.55512251390016842</v>
+      </c>
+      <c r="B71">
+        <v>1.4386904822855355</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>0.49727472377431775</v>
+      </c>
+      <c r="B72">
+        <v>0.98068292733935747</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>0.49708811799971825</v>
+      </c>
+      <c r="B73">
+        <v>0.74604790943660093</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>0.47189633842878326</v>
+      </c>
+      <c r="B74">
+        <v>1.2847699105413284</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>0.44241262604205944</v>
+      </c>
+      <c r="B75">
+        <v>1.250982467963331</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>0.39520136506838133</v>
+      </c>
+      <c r="B76">
+        <v>1.2322116665311107</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>0.30413774706381647</v>
+      </c>
+      <c r="B77">
+        <v>0.11159482102755161</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>0.30003242002262709</v>
+      </c>
+      <c r="B78">
+        <v>0.36500064036252655</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>0.27838615016908297</v>
+      </c>
+      <c r="B79">
+        <v>0.34998399921674977</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>0.27073531341050272</v>
+      </c>
+      <c r="B80">
+        <v>1.2735074296819953</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>0.25543363989334222</v>
+      </c>
+      <c r="B81">
+        <v>0.56960237597372965</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>0.24554353383956776</v>
+      </c>
+      <c r="B82">
+        <v>0.90559972161047575</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>0.19926530173888726</v>
+      </c>
+      <c r="B83">
+        <v>1.3936405588482053</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>0.16623607963477255</v>
+      </c>
+      <c r="B84">
+        <v>-3.1063269857324598E-2</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>0.1636235987903793</v>
+      </c>
+      <c r="B85">
+        <v>1.2322116665311107</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>0.14645586752722362</v>
+      </c>
+      <c r="B86">
+        <v>0.76294163072559951</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>0.14067108851463855</v>
+      </c>
+      <c r="B87">
+        <v>0.13975102317588123</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>0.12686226119427421</v>
+      </c>
+      <c r="B88">
+        <v>0.83990191659770319</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>0.11939803021029349</v>
+      </c>
+      <c r="B89">
+        <v>1.2547366282497747</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>0.11006774148031759</v>
+      </c>
+      <c r="B90">
+        <v>0.99006832805546674</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>9.345982754096048E-2</v>
+      </c>
+      <c r="B91">
+        <v>1.2209491856717776</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>7.741173092540192E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.19606342747254257</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>7.3119798109612999E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.84928731731381446</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>7.0693923039819265E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.21671130904798483</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>3.8037912484903583E-2</v>
+      </c>
+      <c r="B95">
+        <v>1.2359658268175544</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>7.2479596759830889E-3</v>
+      </c>
+      <c r="B96">
+        <v>4.7774096158000851E-2</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>-2.0556300739345116E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.27114663320142435</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>-4.1456147494491148E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.25425291191242572</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>-4.3882022564284882E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.30493407577942155</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>-4.910698425307139E-2</v>
+      </c>
+      <c r="B100">
+        <v>1.1890388232370042</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>-5.0413224675268022E-2</v>
+      </c>
+      <c r="B101">
+        <v>1.1590055409454507</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>-6.25426000242367E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.93563300390202719</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>-0.12412250564207769</v>
+      </c>
+      <c r="B103">
+        <v>-1.0240386656217841</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>-0.17954442069813459</v>
+      </c>
+      <c r="B104">
+        <v>0.77795827187137634</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>-0.18420956506312253</v>
+      </c>
+      <c r="B105">
+        <v>0.62779186041361279</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>-0.19671215196129024</v>
+      </c>
+      <c r="B106">
+        <v>0.39878808294052376</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>-0.2086549215356594</v>
+      </c>
+      <c r="B107">
+        <v>8.3554131503381264E-3</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>-0.21854502758943387</v>
+      </c>
+      <c r="B108">
+        <v>4.0265775585113503E-2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>-0.22041108533542905</v>
+      </c>
+      <c r="B109">
+        <v>0.25049875162598206</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>-0.22899495096700689</v>
+      </c>
+      <c r="B110">
+        <v>0.85491855774347991</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>-0.27079464447729895</v>
+      </c>
+      <c r="B111">
+        <v>0.6108981391246141</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>-0.27620621194068501</v>
+      </c>
+      <c r="B112">
+        <v>-0.12867143730487049</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>-0.27620621194068501</v>
+      </c>
+      <c r="B113">
+        <v>0.34810691907352792</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>-0.28534989489606138</v>
+      </c>
+      <c r="B114">
+        <v>-0.88138057473691012</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>-0.29150788545784545</v>
+      </c>
+      <c r="B115">
+        <v>0.50765873124740279</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>-0.30550331855280932</v>
+      </c>
+      <c r="B116">
+        <v>0.40254224322696747</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>-0.31035506869239682</v>
+      </c>
+      <c r="B117">
+        <v>0.62403770012716908</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>-0.3144603957335862</v>
+      </c>
+      <c r="B118">
+        <v>0.24486751119631656</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>-0.32080499206996982</v>
+      </c>
+      <c r="B119">
+        <v>-0.17184428059897688</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>-0.33573345403793126</v>
+      </c>
+      <c r="B120">
+        <v>0.58461901711950637</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>-0.35066191600589275</v>
+      </c>
+      <c r="B121">
+        <v>0.25049875162598206</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>-0.36503056065005562</v>
+      </c>
+      <c r="B122">
+        <v>0.46448588795329426</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>-0.37454745515463106</v>
+      </c>
+      <c r="B123">
+        <v>0.10033234016821851</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>-0.38854288824959493</v>
+      </c>
+      <c r="B124">
+        <v>-0.12304019687520498</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>-0.40962934077934043</v>
+      </c>
+      <c r="B125">
+        <v>-0.54162906881372019</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>-0.41130879275073612</v>
+      </c>
+      <c r="B126">
+        <v>-0.80254320872158458</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>-0.42213192767750818</v>
+      </c>
+      <c r="B127">
+        <v>5.528241673089028E-2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>-0.48259219864775205</v>
+      </c>
+      <c r="B128">
+        <v>0.10971774088432977</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>-0.48875018920953617</v>
+      </c>
+      <c r="B129">
+        <v>8.4709257745078264E-4</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>-0.50741076666948792</v>
+      </c>
+      <c r="B130">
+        <v>0.63342310084327824</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>-0.53950695990060504</v>
+      </c>
+      <c r="B131">
+        <v>1.5863733723227556E-2</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>-0.5525693641225714</v>
+      </c>
+      <c r="B132">
+        <v>-0.33702733320251721</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>-0.56115322975414916</v>
+      </c>
+      <c r="B133">
+        <v>0.53581493339573238</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>-0.6300107605813714</v>
+      </c>
+      <c r="B134">
+        <v>-0.41398761907462078</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>-0.63094378945436902</v>
+      </c>
+      <c r="B135">
+        <v>-6.4850712435321811E-2</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>-0.63336966452416277</v>
+      </c>
+      <c r="B136">
+        <v>-0.20938588346341777</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>-0.65016418423811939</v>
+      </c>
+      <c r="B137">
+        <v>-8.1744433724318333E-2</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>-0.65744180944750052</v>
+      </c>
+      <c r="B138">
+        <v>-0.16058179973964587</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>-0.67386311761225814</v>
+      </c>
+      <c r="B139">
+        <v>6.0913657160555787E-2</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>-0.68879157958021964</v>
+      </c>
+      <c r="B140">
+        <v>-0.53412074824083078</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>-0.69606920478960077</v>
+      </c>
+      <c r="B141">
+        <v>-8.5498594010764095E-2</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>-0.71547620534795076</v>
+      </c>
+      <c r="B142">
+        <v>9.8455260024996674E-2</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>-0.72536631140172514</v>
+      </c>
+      <c r="B143">
+        <v>0.48888792981518231</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>-0.73544302323009914</v>
+      </c>
+      <c r="B144">
+        <v>0.12285730188688262</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>-0.78881227476556137</v>
+      </c>
+      <c r="B145">
+        <v>-0.7218287625630353</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>-0.79422384222894737</v>
+      </c>
+      <c r="B146">
+        <v>-0.2112629636066396</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>-0.79832916927013675</v>
+      </c>
+      <c r="B147">
+        <v>-0.42712718007717576</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>-0.8216548910950765</v>
+      </c>
+      <c r="B148">
+        <v>-0.13242559759131417</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>-0.86662688277356037</v>
+      </c>
+      <c r="B149">
+        <v>-0.23378792532530579</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>-0.95377177951153536</v>
+      </c>
+      <c r="B150">
+        <v>-0.77063284628680928</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>-0.9554512314829311</v>
+      </c>
+      <c r="B151">
+        <v>-0.65425387740704288</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>-0.96758060683189973</v>
+      </c>
+      <c r="B152">
+        <v>-0.785649487432586</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>-1.0338256568147286</v>
+      </c>
+      <c r="B153">
+        <v>-0.28446908919229952</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>-1.2051297578970863</v>
+      </c>
+      <c r="B154">
+        <v>-0.98274290247089957</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>-1.2538338650675607</v>
+      </c>
+      <c r="B155">
+        <v>-1.0071449443327856</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>4.965923208108979</v>
+      </c>
+      <c r="B156">
+        <v>1.2472283076768873</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>4.1739683007086237</v>
+      </c>
+      <c r="B157">
+        <v>2.5311511256407648</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>3.8651357437464213</v>
+      </c>
+      <c r="B158">
+        <v>1.3504677155540987</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>3.6195625443734554</v>
+      </c>
+      <c r="B159">
+        <v>1.228457506244667</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>3.0116009307282252</v>
+      </c>
+      <c r="B160">
+        <v>2.4204033971906642</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>2.7469939423461085</v>
+      </c>
+      <c r="B161">
+        <v>1.7108671030527309</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>2.2780536307775194</v>
+      </c>
+      <c r="B162">
+        <v>8.9069859308887486E-2</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>1.8990573025658981</v>
+      </c>
+      <c r="B163">
+        <v>0.82488527545192636</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>1.7846679627363935</v>
+      </c>
+      <c r="B164">
+        <v>0.53581493339573238</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>1.6072058710922517</v>
+      </c>
+      <c r="B165">
+        <v>-0.70118088098759301</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>1.5835069377181128</v>
+      </c>
+      <c r="B166">
+        <v>1.3598531162702101</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>1.5213672147764734</v>
+      </c>
+      <c r="B167">
+        <v>1.6226443363212963</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>1.5081182047799075</v>
+      </c>
+      <c r="B168">
+        <v>1.6057506150322978</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>1.4795675212661812</v>
+      </c>
+      <c r="B169">
+        <v>0.17916970618354394</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>1.4633328188760233</v>
+      </c>
+      <c r="B170">
+        <v>0.39503392265408011</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>1.1813714934561512</v>
+      </c>
+      <c r="B171">
+        <v>0.94314132447491661</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>1.1440503385362477</v>
+      </c>
+      <c r="B172">
+        <v>-0.64674555683415347</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>1.1328539920602765</v>
+      </c>
+      <c r="B173">
+        <v>1.3373281545515459</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>1.1319209631872791</v>
+      </c>
+      <c r="B174">
+        <v>-0.37644601621017992</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>1.1233370975557011</v>
+      </c>
+      <c r="B175">
+        <v>-1.4538900184196326</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>1.107102395165543</v>
+      </c>
+      <c r="B176">
+        <v>-7.0481952864987318E-2</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>1.0449626722239036</v>
+      </c>
+      <c r="B177">
+        <v>0.50202749081773512</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>1.0445894606747046</v>
+      </c>
+      <c r="B178">
+        <v>1.7878273889248344</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>1.0363788065923256</v>
+      </c>
+      <c r="B179">
+        <v>-1.4839233007111861</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>1.0009237094184171</v>
+      </c>
+      <c r="B180">
+        <v>7.9684458592776231E-2</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>0.946808034784557</v>
+      </c>
+      <c r="B181">
+        <v>-0.32201069205674043</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>0.94046343844817337</v>
+      </c>
+      <c r="B182">
+        <v>1.130849338797121</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>0.7458336155408759</v>
+      </c>
+      <c r="B183">
+        <v>0.56209405540084223</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>0.7452737982170774</v>
+      </c>
+      <c r="B184">
+        <v>1.7108671030527309</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>0.74322113469648265</v>
+      </c>
+      <c r="B185">
+        <v>-0.29948573033807629</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>0.70589997977657903</v>
+      </c>
+      <c r="B186">
+        <v>-0.57353943124849349</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>0.64599952613013367</v>
+      </c>
+      <c r="B187">
+        <v>-9.1129834440429602E-2</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>0.59486954388986579</v>
+      </c>
+      <c r="B188">
+        <v>0.52455245253640137</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>0.58423301473769318</v>
+      </c>
+      <c r="B189">
+        <v>-0.54350614895694205</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>0.50809785870108981</v>
+      </c>
+      <c r="B190">
+        <v>-0.10051523515653878</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>0.26849604411530847</v>
+      </c>
+      <c r="B191">
+        <v>0.60526689869494865</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>0.23733287975718897</v>
+      </c>
+      <c r="B192">
+        <v>0.31807363678197648</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>9.9244606553545542E-2</v>
+      </c>
+      <c r="B193">
+        <v>1.2059325445260027</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>0.48645158884754569</v>
+      </c>
+      <c r="B194">
+        <v>0.71601462714504949</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>-0.56693800876673428</v>
+      </c>
+      <c r="B195">
+        <v>-0.60169563339682519</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>-0.9606761931717176</v>
+      </c>
+      <c r="B196">
+        <v>-0.90765969674201785</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C196" xr:uid="{E5EC2DA1-20FB-5747-AE90-26D1E05D21E4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C196">
+      <sortCondition ref="C1:C196"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2606F6-349E-BB47-B557-600589C8B7ED}">
+  <dimension ref="A1:C196"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0.7090722779447709</v>
+      </c>
+      <c r="B2">
+        <v>0.22376794091434621</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.27707990974688634</v>
+      </c>
+      <c r="B3">
+        <v>0.6290481636251477</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0.25729969763933741</v>
+      </c>
+      <c r="B4">
+        <v>0.79495975479738168</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0.21568660990364485</v>
+      </c>
+      <c r="B5">
+        <v>1.0951204197425692</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0.12443638612448049</v>
+      </c>
+      <c r="B6">
+        <v>1.5029336438453129</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8.3569721487186013E-2</v>
+      </c>
+      <c r="B7">
+        <v>1.5345961612445944</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>8.0397423318994202E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.39981153765435051</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>-4.9666801576869944E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.60245164900975112</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>-6.5714898192428511E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.68224119285594009</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>-0.10751459170272057</v>
+      </c>
+      <c r="B11">
+        <v>1.1179174322700518</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>-0.20958795040865699</v>
+      </c>
+      <c r="B12">
+        <v>0.20097092838686331</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>-0.29188109700704451</v>
+      </c>
+      <c r="B13">
+        <v>1.0254628814641502</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>-0.32005856897157176</v>
+      </c>
+      <c r="B14">
+        <v>-0.18024578110048414</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>-0.3379727233331255</v>
+      </c>
+      <c r="B15">
+        <v>3.4571442177289589</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>-0.35458063727248262</v>
+      </c>
+      <c r="B16">
+        <v>0.91401082021867985</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>-0.38145186881481324</v>
+      </c>
+      <c r="B17">
+        <v>1.0748564086070291</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>-0.38686343627819925</v>
+      </c>
+      <c r="B18">
+        <v>1.2888950262261714</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>-0.42213192767750818</v>
+      </c>
+      <c r="B19">
+        <v>0.5454591176910446</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>-0.4493763707690378</v>
+      </c>
+      <c r="B20">
+        <v>0.19717142629894963</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>-0.5113294879360778</v>
+      </c>
+      <c r="B21">
+        <v>-0.12198674908580653</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>-0.54174622919579929</v>
+      </c>
+      <c r="B22">
+        <v>0.66704318450428501</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>-0.55387560454476803</v>
+      </c>
+      <c r="B23">
+        <v>0.6379136684969462</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>-0.56507195102073904</v>
+      </c>
+      <c r="B24">
+        <v>-0.13718475743746167</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>-0.57906738411570291</v>
+      </c>
+      <c r="B25">
+        <v>-0.14478376161328907</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>-0.6147090870642109</v>
+      </c>
+      <c r="B26">
+        <v>1.343354556152935</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>-0.6249724046671844</v>
+      </c>
+      <c r="B27">
+        <v>0.85448528750803077</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>-0.64269995325413865</v>
+      </c>
+      <c r="B28">
+        <v>0.97860235571321375</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>-0.71939492661454063</v>
+      </c>
+      <c r="B29">
+        <v>0.88868080629925472</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>-0.73805550407449239</v>
+      </c>
+      <c r="B30">
+        <v>1.3154915408415675</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>-0.74738579280446826</v>
+      </c>
+      <c r="B31">
+        <v>0.52646160725147573</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>-0.74775900435366738</v>
+      </c>
+      <c r="B32">
+        <v>0.14397839706815715</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>-0.76772582223581576</v>
+      </c>
+      <c r="B33">
+        <v>0.66957618589622758</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>-0.77332399547380137</v>
+      </c>
+      <c r="B34">
+        <v>1.1077854267022815</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>-0.779668591810185</v>
+      </c>
+      <c r="B35">
+        <v>0.94314033622601867</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>-0.78731942856876524</v>
+      </c>
+      <c r="B36">
+        <v>-2.0217377930426883</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>-0.790491726736957</v>
+      </c>
+      <c r="B37">
+        <v>0.23010044439420246</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>-0.79459705377814638</v>
+      </c>
+      <c r="B38">
+        <v>0.26556246388139754</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>-0.79795595772093775</v>
+      </c>
+      <c r="B39">
+        <v>-0.22963930824336326</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>-0.82986554517745537</v>
+      </c>
+      <c r="B40">
+        <v>1.5548601723801343</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>-0.85076539193260137</v>
+      </c>
+      <c r="B41">
+        <v>8.9518867141392885E-2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>-0.85431090164999224</v>
+      </c>
+      <c r="B42">
+        <v>1.5181316521969686</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>-0.91010602825524811</v>
+      </c>
+      <c r="B43">
+        <v>0.37701452512686801</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>-0.91868989388682598</v>
+      </c>
+      <c r="B44">
+        <v>-2.9532198279904939E-2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>-0.92391485557561248</v>
+      </c>
+      <c r="B45">
+        <v>-0.22963930824336326</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>-0.93697725979757873</v>
+      </c>
+      <c r="B46">
+        <v>-0.32462686044120709</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>-0.9451879138799576</v>
+      </c>
+      <c r="B47">
+        <v>1.2382349983873211</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>-0.95265214486393823</v>
+      </c>
+      <c r="B48">
+        <v>1.2787630206584011</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>-0.96011637584791898</v>
+      </c>
+      <c r="B49">
+        <v>0.26556246388139754</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>-1.0043419444280048</v>
+      </c>
+      <c r="B50">
+        <v>0.77849524574975537</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>-1.0073276368215971</v>
+      </c>
+      <c r="B51">
+        <v>0.50619759611593584</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>-1.0175909544245705</v>
+      </c>
+      <c r="B52">
+        <v>0.15284390193995567</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>-1.0420363108971076</v>
+      </c>
+      <c r="B53">
+        <v>0.96720384944947224</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>-1.0651754269474478</v>
+      </c>
+      <c r="B54">
+        <v>1.6080532016109275</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>-1.0666682731442438</v>
+      </c>
+      <c r="B55">
+        <v>1.3319560498891936</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>-1.0780512253948145</v>
+      </c>
+      <c r="B56">
+        <v>-0.67038155044135961</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>-1.1103340244005311</v>
+      </c>
+      <c r="B57">
+        <v>-0.84769164787733531</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>-1.1312338711556771</v>
+      </c>
+      <c r="B58">
+        <v>1.5219311542848819</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>-1.2514079899977668</v>
+      </c>
+      <c r="B59">
+        <v>1.2319024949074648</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>-1.2973130105492483</v>
+      </c>
+      <c r="B60">
+        <v>0.10091737340513433</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>-1.3570268584210941</v>
+      </c>
+      <c r="B61">
+        <v>-0.91988218754769691</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>-1.4165541005183404</v>
+      </c>
+      <c r="B62">
+        <v>-0.71724207619229619</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>1.0186512580053715</v>
+      </c>
+      <c r="B63">
+        <v>-0.85529065205316279</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>0.95072675605114687</v>
+      </c>
+      <c r="B64">
+        <v>-0.50953596205301033</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>0.78614046285437189</v>
+      </c>
+      <c r="B65">
+        <v>-0.37148738619214361</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>0.69003848893562003</v>
+      </c>
+      <c r="B66">
+        <v>-0.70837657132049736</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>0.66466010359008554</v>
+      </c>
+      <c r="B67">
+        <v>-1.1541848163023789</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>0.65644944950770678</v>
+      </c>
+      <c r="B68">
+        <v>-1.712711623225702</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>0.60923818853402867</v>
+      </c>
+      <c r="B69">
+        <v>-0.44114492447056269</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>0.57826162995050867</v>
+      </c>
+      <c r="B70">
+        <v>0.14144539567621459</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>0.55512251390016842</v>
+      </c>
+      <c r="B71">
+        <v>-1.7899681656799487</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>0.49727472377431775</v>
+      </c>
+      <c r="B72">
+        <v>0.28076047223305234</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>0.49708811799971825</v>
+      </c>
+      <c r="B73">
+        <v>-0.16631427344480049</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>0.47189633842878326</v>
+      </c>
+      <c r="B74">
+        <v>-0.76916860472711757</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>0.44241262604205944</v>
+      </c>
+      <c r="B75">
+        <v>-1.2111773476210854</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>0.39520136506838133</v>
+      </c>
+      <c r="B76">
+        <v>-0.21570780058767924</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>0.30413774706381647</v>
+      </c>
+      <c r="B77">
+        <v>-0.80083112212639895</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>0.30003242002262709</v>
+      </c>
+      <c r="B78">
+        <v>-0.7185085768882673</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>0.27838615016908297</v>
+      </c>
+      <c r="B79">
+        <v>0.38334702860672426</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>0.27073531341050272</v>
+      </c>
+      <c r="B80">
+        <v>-0.17011377553271417</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>0.25543363989334222</v>
+      </c>
+      <c r="B81">
+        <v>-0.4436779258625051</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>0.24554353383956776</v>
+      </c>
+      <c r="B82">
+        <v>-0.40188340289545355</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>0.19926530173888726</v>
+      </c>
+      <c r="B83">
+        <v>-0.66404904696150335</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>0.16623607963477255</v>
+      </c>
+      <c r="B84">
+        <v>-0.71217607340841105</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>0.1636235987903793</v>
+      </c>
+      <c r="B85">
+        <v>-2.9356836645087086E-3</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>0.14645586752722362</v>
+      </c>
+      <c r="B86">
+        <v>-0.88695316945244418</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>0.14067108851463855</v>
+      </c>
+      <c r="B87">
+        <v>-0.19037778666825414</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>0.12686226119427421</v>
+      </c>
+      <c r="B88">
+        <v>0.46187007175694184</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>0.11939803021029349</v>
+      </c>
+      <c r="B89">
+        <v>-1.1351873058628099</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>0.11006774148031759</v>
+      </c>
+      <c r="B90">
+        <v>6.7988355309881815E-2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>9.345982754096048E-2</v>
+      </c>
+      <c r="B91">
+        <v>-0.56272899128380305</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>7.741173092540192E-2</v>
+      </c>
+      <c r="B92">
+        <v>-0.81982863256596772</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>7.3119798109612999E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.21996843882643216</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>7.0693923039819265E-2</v>
+      </c>
+      <c r="B94">
+        <v>-0.75650359776740494</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>3.8037912484903583E-2</v>
+      </c>
+      <c r="B95">
+        <v>-1.079461275240075</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>7.2479596759830889E-3</v>
+      </c>
+      <c r="B96">
+        <v>-1.2200428524928841</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>-2.0556300739345116E-2</v>
+      </c>
+      <c r="B97">
+        <v>-1.1795148302218039</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>-4.1456147494491148E-2</v>
+      </c>
+      <c r="B98">
+        <v>-3.0798698975876053E-2</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>-4.3882022564284882E-2</v>
+      </c>
+      <c r="B99">
+        <v>-1.3808884408812334</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>-4.910698425307139E-2</v>
+      </c>
+      <c r="B100">
+        <v>-0.33729186740091965</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>-5.0413224675268022E-2</v>
+      </c>
+      <c r="B101">
+        <v>-1.2529718705881367</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>-6.25426000242367E-2</v>
+      </c>
+      <c r="B102">
+        <v>-0.98827322513014448</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>-0.12412250564207769</v>
+      </c>
+      <c r="B103">
+        <v>-0.69064556157689971</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>-0.17954442069813459</v>
+      </c>
+      <c r="B104">
+        <v>-0.24483731659501806</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>-0.18420956506312253</v>
+      </c>
+      <c r="B105">
+        <v>-8.0192226118755164E-2</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>-0.19671215196129024</v>
+      </c>
+      <c r="B106">
+        <v>-0.59439150868308444</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>-0.2086549215356594</v>
+      </c>
+      <c r="B107">
+        <v>-0.65265054069776207</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>-0.21854502758943387</v>
+      </c>
+      <c r="B108">
+        <v>-0.60579001494682572</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>-0.22041108533542905</v>
+      </c>
+      <c r="B109">
+        <v>-1.1985123406613727</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>-0.22899495096700689</v>
+      </c>
+      <c r="B110">
+        <v>-1.2960328942511596</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>-0.27079464447729895</v>
+      </c>
+      <c r="B111">
+        <v>-1.1440528107346088</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>-0.27620621194068501</v>
+      </c>
+      <c r="B112">
+        <v>-8.0016864483935211E-3</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>-0.27620621194068501</v>
+      </c>
+      <c r="B113">
+        <v>0.43020755435766045</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>-0.28534989489606138</v>
+      </c>
+      <c r="B114">
+        <v>-0.85275765066122045</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>-0.29150788545784545</v>
+      </c>
+      <c r="B115">
+        <v>-0.60832301633876817</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>-0.30550331855280932</v>
+      </c>
+      <c r="B116">
+        <v>-1.373289436705406</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>-0.31035506869239682</v>
+      </c>
+      <c r="B117">
+        <v>-0.36388838201631624</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>-0.3144603957335862</v>
+      </c>
+      <c r="B118">
+        <v>-0.16378127205285789</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>-0.32080499206996982</v>
+      </c>
+      <c r="B119">
+        <v>-1.1503853142144651</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>-0.33573345403793126</v>
+      </c>
+      <c r="B120">
+        <v>-1.0534687840336102E-2</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>-0.35066191600589275</v>
+      </c>
+      <c r="B121">
+        <v>-0.18277878249242674</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>-0.36503056065005562</v>
+      </c>
+      <c r="B122">
+        <v>-0.82996063813373766</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>-0.37454745515463106</v>
+      </c>
+      <c r="B123">
+        <v>-0.67164805113733095</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>-0.38854288824959493</v>
+      </c>
+      <c r="B124">
+        <v>-0.64125203443402079</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>-0.40962934077934043</v>
+      </c>
+      <c r="B125">
+        <v>-0.81349612908611146</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>-0.41130879275073612</v>
+      </c>
+      <c r="B126">
+        <v>-1.0781947745441036</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>-0.42213192767750818</v>
+      </c>
+      <c r="B127">
+        <v>-0.92621469102755316</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>-0.48259219864775205</v>
+      </c>
+      <c r="B128">
+        <v>-0.20177629293199556</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>-0.48875018920953617</v>
+      </c>
+      <c r="B129">
+        <v>-0.98574022373820214</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>-0.50741076666948792</v>
+      </c>
+      <c r="B130">
+        <v>-1.5100715118703016</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>-0.53950695990060504</v>
+      </c>
+      <c r="B131">
+        <v>-1.7342421350572135</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>-0.5525693641225714</v>
+      </c>
+      <c r="B132">
+        <v>-0.40694940567933868</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>-0.56115322975414916</v>
+      </c>
+      <c r="B133">
+        <v>-0.49940395648524027</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>-0.6300107605813714</v>
+      </c>
+      <c r="B134">
+        <v>-0.82616113604582397</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>-0.63094378945436902</v>
+      </c>
+      <c r="B135">
+        <v>-0.21064179780379444</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>-0.63336966452416277</v>
+      </c>
+      <c r="B136">
+        <v>-1.4682769889032501</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>-0.65016418423811939</v>
+      </c>
+      <c r="B137">
+        <v>-1.159250819086264</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>-0.65744180944750052</v>
+      </c>
+      <c r="B138">
+        <v>-1.0553977620166211</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>-0.67386311761225814</v>
+      </c>
+      <c r="B139">
+        <v>-0.29549734443386827</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>-0.68879157958021964</v>
+      </c>
+      <c r="B140">
+        <v>-0.81349612908611146</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>-0.69606920478960077</v>
+      </c>
+      <c r="B141">
+        <v>-0.87808766458064536</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>-0.71547620534795076</v>
+      </c>
+      <c r="B142">
+        <v>-1.0250017453133109</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>-0.72536631140172514</v>
+      </c>
+      <c r="B143">
+        <v>-0.39935040150351131</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>-0.73544302323009914</v>
+      </c>
+      <c r="B144">
+        <v>-0.59185850729114187</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>-0.78881227476556137</v>
+      </c>
+      <c r="B145">
+        <v>-1.2314413587566255</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>-0.79422384222894737</v>
+      </c>
+      <c r="B146">
+        <v>-0.58046000102740059</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>-0.79832916927013675</v>
+      </c>
+      <c r="B147">
+        <v>-0.50067045718121161</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>-0.8216548910950765</v>
+      </c>
+      <c r="B148">
+        <v>-0.90468417919604172</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>-0.86662688277356037</v>
+      </c>
+      <c r="B149">
+        <v>-0.3474238729686896</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>-0.95377177951153536</v>
+      </c>
+      <c r="B150">
+        <v>-0.77423460751100248</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>-0.9554512314829311</v>
+      </c>
+      <c r="B151">
+        <v>-1.0364002515770523</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>-0.96758060683189973</v>
+      </c>
+      <c r="B152">
+        <v>-1.2023118427492867</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>-1.0338256568147286</v>
+      </c>
+      <c r="B153">
+        <v>-0.45254343073430392</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>-1.2051297578970863</v>
+      </c>
+      <c r="B154">
+        <v>-1.4796754951669913</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>-1.2538338650675607</v>
+      </c>
+      <c r="B155">
+        <v>-1.0541312613206499</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>4.965923208108979</v>
+      </c>
+      <c r="B156">
+        <v>0.71896971303910673</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>4.1739683007086237</v>
+      </c>
+      <c r="B157">
+        <v>0.33901950424773031</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>3.8651357437464213</v>
+      </c>
+      <c r="B158">
+        <v>1.2281029928195508</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>3.6195625443734554</v>
+      </c>
+      <c r="B159">
+        <v>1.3230905450173951</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>3.0116009307282252</v>
+      </c>
+      <c r="B160">
+        <v>-7.3859722638898881E-2</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>2.7469939423461085</v>
+      </c>
+      <c r="B161">
+        <v>-0.12072024838983507</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>2.2780536307775194</v>
+      </c>
+      <c r="B162">
+        <v>1.226232468714643E-2</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>1.8990573025658981</v>
+      </c>
+      <c r="B163">
+        <v>0.81522376593292201</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>1.7846679627363935</v>
+      </c>
+      <c r="B164">
+        <v>-0.50573645996509653</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>1.6072058710922517</v>
+      </c>
+      <c r="B165">
+        <v>0.9570718438817023</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>1.5835069377181128</v>
+      </c>
+      <c r="B166">
+        <v>0.44540556270931558</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>1.5213672147764734</v>
+      </c>
+      <c r="B167">
+        <v>-0.98700672443417337</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>1.5081182047799075</v>
+      </c>
+      <c r="B168">
+        <v>-1.0034712334817997</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>1.4795675212661812</v>
+      </c>
+      <c r="B169">
+        <v>0.55559112325881455</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>1.4633328188760233</v>
+      </c>
+      <c r="B170">
+        <v>-0.15111626509314535</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>1.1813714934561512</v>
+      </c>
+      <c r="B171">
+        <v>0.50999709820384953</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>1.1440503385362477</v>
+      </c>
+      <c r="B172">
+        <v>0.41754254739794788</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>1.1328539920602765</v>
+      </c>
+      <c r="B173">
+        <v>-0.36388838201631624</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>1.1319209631872791</v>
+      </c>
+      <c r="B174">
+        <v>-0.54373148084423428</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>1.1233370975557011</v>
+      </c>
+      <c r="B175">
+        <v>0.17944041655535226</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>1.107102395165543</v>
+      </c>
+      <c r="B176">
+        <v>-0.21697430128365069</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>1.0449626722239036</v>
+      </c>
+      <c r="B177">
+        <v>0.34535200772758662</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>1.0445894606747046</v>
+      </c>
+      <c r="B178">
+        <v>1.5472611682043069</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>1.0363788065923256</v>
+      </c>
+      <c r="B179">
+        <v>1.7878963004388455</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>1.0009237094184171</v>
+      </c>
+      <c r="B180">
+        <v>0.74809922904644544</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>0.946808034784557</v>
+      </c>
+      <c r="B181">
+        <v>0.60371814970572257</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>0.94046343844817337</v>
+      </c>
+      <c r="B182">
+        <v>0.39854503695837906</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>0.7458336155408759</v>
+      </c>
+      <c r="B183">
+        <v>1.8727518470689195</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>0.7452737982170774</v>
+      </c>
+      <c r="B184">
+        <v>0.74683272835047398</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>0.74322113469648265</v>
+      </c>
+      <c r="B185">
+        <v>-0.22710630685142069</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>0.70589997977657903</v>
+      </c>
+      <c r="B186">
+        <v>1.2065724809880398</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>0.64599952613013367</v>
+      </c>
+      <c r="B187">
+        <v>6.672185461391035E-2</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>0.59486954388986579</v>
+      </c>
+      <c r="B188">
+        <v>1.1812424670686146</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>0.58423301473769318</v>
+      </c>
+      <c r="B189">
+        <v>0.49099958776428065</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>0.50809785870108981</v>
+      </c>
+      <c r="B190">
+        <v>0.21870193813046104</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>0.26849604411530847</v>
+      </c>
+      <c r="B191">
+        <v>1.4877356354936582</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>0.23733287975718897</v>
+      </c>
+      <c r="B192">
+        <v>0.72150271443104885</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>9.9244606553545542E-2</v>
+      </c>
+      <c r="B193">
+        <v>1.1356484420136492</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>0.48645158884754569</v>
+      </c>
+      <c r="B194">
+        <v>1.9740719027466198</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>-0.56693800876673428</v>
+      </c>
+      <c r="B195">
+        <v>5.43668480553203</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>-0.9606761931717176</v>
+      </c>
+      <c r="B196">
+        <v>2.3768191240654786</v>
+      </c>
+      <c r="C196">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C196" xr:uid="{70EF4366-5DC3-0949-9E97-BD25DA2B70A9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C196">
+      <sortCondition ref="C1:C196"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C385"/>
   <sheetViews>
@@ -41928,7 +51102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C365"/>
   <sheetViews>
@@ -45963,7 +55137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C328"/>
   <sheetViews>
